--- a/references/literature review 2.xlsx
+++ b/references/literature review 2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\NOAA projects\Natalya Gallo\Symposium paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/references/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE247569-ED83-FF40-A780-D92066FA2470}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9850" windowHeight="6840"/>
+    <workbookView xWindow="3500" yWindow="1280" windowWidth="36280" windowHeight="23700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -543,7 +544,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -560,12 +561,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -580,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -599,6 +606,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -878,27 +893,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="5" customWidth="1"/>
-    <col min="5" max="6" width="11.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="11.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -930,7 +945,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -959,7 +974,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="192" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -988,7 +1003,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -1017,7 +1032,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1046,7 +1061,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -1075,7 +1090,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="84.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1102,7 +1117,7 @@
       </c>
       <c r="J7"/>
     </row>
-    <row r="8" spans="1:10" ht="232" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="240" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,7 +1140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1154,7 +1169,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="192" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1180,33 +1195,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="10">
         <v>2</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="8">
         <v>2.5</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>145</v>
       </c>
@@ -1235,7 +1250,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1261,7 +1276,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="160" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -1287,7 +1302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="116" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>50</v>
       </c>
@@ -1310,7 +1325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="232" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="240" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,7 +1348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1362,7 +1377,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="144" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>166</v>
       </c>
@@ -1388,7 +1403,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="116" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -1414,7 +1429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="128" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
@@ -1443,36 +1458,36 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="116" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="9">
         <v>3</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="8">
         <v>2.1</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="11">
         <v>105</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="232" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="240" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1495,7 +1510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
@@ -1524,7 +1539,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1553,7 +1568,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>59</v>
       </c>
@@ -1582,7 +1597,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -1612,7 +1627,7 @@
       </c>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="116" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1641,7 +1656,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="160" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -1670,7 +1685,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,7 +1714,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -1728,7 +1743,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -1754,7 +1769,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -1783,7 +1798,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>135</v>
       </c>
@@ -1809,7 +1824,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -1832,30 +1847,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="F35" s="8"/>
+      <c r="G35" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="11">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
     </row>
   </sheetData>
@@ -1869,21 +1886,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="132" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="129" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -1894,7 +1911,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="88.5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" ht="97" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1905,7 +1922,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="74" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" ht="81" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1919,7 +1936,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="190" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" ht="193" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1930,7 +1947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="146.5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" ht="161" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1941,7 +1958,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="74" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" ht="81" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1952,7 +1969,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="190" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" ht="193" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
